--- a/05. MIS Report/02. MIS Report Work.xlsx
+++ b/05. MIS Report/02. MIS Report Work.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01. Official\Office\05. MIS Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Official\05. MIS Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="পরিসংখ্যান " sheetId="1" r:id="rId1"/>
@@ -402,18 +402,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,10 +444,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,15 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -756,54 +756,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -818,19 +818,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -848,7 +848,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -866,7 +866,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
@@ -884,7 +884,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
@@ -906,19 +906,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -972,7 +972,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
@@ -990,17 +990,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1037,19 +1037,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1125,37 +1125,29 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="A30:B31"/>
@@ -1166,6 +1158,14 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
@@ -1191,31 +1191,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1235,7 +1235,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1253,7 +1253,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1285,10 +1285,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="12">
         <f>SUM(C6:C8)</f>
         <v>25641</v>
@@ -1303,14 +1303,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1328,7 +1328,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1360,10 +1360,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="12">
         <f>SUM(C11:C13)</f>
         <v>23900</v>
@@ -1378,14 +1378,14 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1403,7 +1403,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
@@ -1435,42 +1435,42 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32">
+      <c r="B19" s="34"/>
+      <c r="C19" s="30">
         <f>SUM(C16:C18)</f>
         <v>293804</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="30">
         <f>SUM(D16:D18)</f>
         <v>83717</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1478,6 +1478,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:B20"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -1488,11 +1493,6 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:B20"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
